--- a/static/oil_reports/oil_report_template.xlsx
+++ b/static/oil_reports/oil_report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Склад2 КЦ-5,6 " sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
   <si>
     <t xml:space="preserve">Отчет о движении и списании масла по 3 складу КС-5,6</t>
   </si>
@@ -97,9 +97,6 @@
     <t xml:space="preserve">ТП чис</t>
   </si>
   <si>
-    <t xml:space="preserve">БПМ3</t>
-  </si>
-  <si>
     <t xml:space="preserve">ТП   гр</t>
   </si>
   <si>
@@ -127,23 +124,25 @@
     <t xml:space="preserve">МДО</t>
   </si>
   <si>
+    <t xml:space="preserve">МДЧ</t>
+  </si>
+  <si>
     <t xml:space="preserve">МНЧ</t>
   </si>
   <si>
-    <t xml:space="preserve">МДЧ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63Д   54Д     52Д    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">63Н, 64Н
- 52Н, 54Н, </t>
-  </si>
-  <si>
     <t xml:space="preserve">МНО</t>
   </si>
   <si>
-    <t xml:space="preserve">Начальник  КС-5,6_______________ А.А. Евсеев</t>
+    <t xml:space="preserve">_________________    _______________ /______________/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">должность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">подпись</t>
+  </si>
+  <si>
+    <t xml:space="preserve">расшифровка</t>
   </si>
   <si>
     <t xml:space="preserve">Отчет о движении и расходе масла по КС-5,6 </t>
@@ -197,13 +196,7 @@
     <t xml:space="preserve">д</t>
   </si>
   <si>
-    <t xml:space="preserve">МХ </t>
-  </si>
-  <si>
     <t xml:space="preserve">н</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Начальник КС-5,6_______________А.А. Евсеев</t>
   </si>
 </sst>
 </file>
@@ -1307,6 +1300,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1413,10 +1410,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1436,31 +1429,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="O8:P25 D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="10.71"/>
   </cols>
@@ -1653,9 +1646,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="26"/>
-      <c r="D8" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="D8" s="27"/>
       <c r="E8" s="28"/>
       <c r="F8" s="29"/>
       <c r="G8" s="28"/>
@@ -1670,9 +1661,7 @@
       <c r="P8" s="29"/>
       <c r="Q8" s="32"/>
       <c r="R8" s="33"/>
-      <c r="S8" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="S8" s="27"/>
       <c r="U8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1683,9 +1672,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="35"/>
-      <c r="D9" s="36" t="n">
-        <v>0</v>
-      </c>
+      <c r="D9" s="36"/>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
       <c r="G9" s="39"/>
@@ -1700,9 +1687,7 @@
       <c r="P9" s="38"/>
       <c r="Q9" s="43"/>
       <c r="R9" s="44"/>
-      <c r="S9" s="45" t="n">
-        <v>0</v>
-      </c>
+      <c r="S9" s="45"/>
       <c r="U9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1713,9 +1698,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="36" t="n">
-        <v>15575</v>
-      </c>
+      <c r="D10" s="36"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
       <c r="G10" s="39"/>
@@ -1730,9 +1713,7 @@
       <c r="P10" s="38"/>
       <c r="Q10" s="43"/>
       <c r="R10" s="44"/>
-      <c r="S10" s="45" t="n">
-        <v>15575</v>
-      </c>
+      <c r="S10" s="45"/>
       <c r="U10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1743,9 +1724,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="35"/>
-      <c r="D11" s="36" t="n">
-        <v>243</v>
-      </c>
+      <c r="D11" s="36"/>
       <c r="E11" s="37"/>
       <c r="F11" s="38"/>
       <c r="G11" s="39"/>
@@ -1760,9 +1739,7 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="43"/>
       <c r="R11" s="44"/>
-      <c r="S11" s="45" t="n">
-        <v>243</v>
-      </c>
+      <c r="S11" s="45"/>
       <c r="U11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1773,15 +1750,9 @@
         <v>5</v>
       </c>
       <c r="C12" s="35"/>
-      <c r="D12" s="36" t="n">
-        <v>18888</v>
-      </c>
-      <c r="E12" s="37" t="n">
-        <v>892</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>23</v>
-      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="51"/>
       <c r="H12" s="47"/>
       <c r="I12" s="52"/>
@@ -1794,22 +1765,18 @@
       <c r="P12" s="53"/>
       <c r="Q12" s="43"/>
       <c r="R12" s="44"/>
-      <c r="S12" s="45" t="n">
-        <v>15324</v>
-      </c>
+      <c r="S12" s="45"/>
       <c r="U12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="55" t="n">
         <v>6</v>
       </c>
       <c r="C13" s="55"/>
-      <c r="D13" s="56" t="n">
-        <v>0</v>
-      </c>
+      <c r="D13" s="56"/>
       <c r="E13" s="57"/>
       <c r="F13" s="58"/>
       <c r="G13" s="59"/>
@@ -1824,15 +1791,13 @@
       <c r="P13" s="58"/>
       <c r="Q13" s="63"/>
       <c r="R13" s="64"/>
-      <c r="S13" s="65" t="n">
-        <v>0</v>
-      </c>
+      <c r="S13" s="65"/>
       <c r="U13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="42.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D14" s="66"/>
       <c r="H14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S14" s="67"/>
       <c r="U14" s="0"/>
@@ -2003,15 +1968,13 @@
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="27" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="27"/>
-      <c r="D19" s="75" t="n">
-        <v>1174</v>
-      </c>
+      <c r="D19" s="75"/>
       <c r="E19" s="28"/>
       <c r="F19" s="29"/>
       <c r="G19" s="30"/>
@@ -2026,22 +1989,18 @@
       <c r="P19" s="80"/>
       <c r="Q19" s="32"/>
       <c r="R19" s="33"/>
-      <c r="S19" s="27" t="n">
-        <v>1442</v>
-      </c>
+      <c r="S19" s="27"/>
       <c r="U19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="36" t="n">
         <v>2</v>
       </c>
       <c r="C20" s="36"/>
-      <c r="D20" s="36" t="n">
-        <v>1863</v>
-      </c>
+      <c r="D20" s="36"/>
       <c r="E20" s="39"/>
       <c r="F20" s="40"/>
       <c r="G20" s="82"/>
@@ -2056,54 +2015,42 @@
       <c r="P20" s="84"/>
       <c r="Q20" s="85"/>
       <c r="R20" s="86"/>
-      <c r="S20" s="36" t="n">
-        <v>1620</v>
-      </c>
+      <c r="S20" s="36"/>
       <c r="U20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="36" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="36"/>
-      <c r="D21" s="75" t="n">
-        <v>0</v>
-      </c>
+      <c r="D21" s="75"/>
       <c r="E21" s="39"/>
       <c r="F21" s="40"/>
       <c r="G21" s="82"/>
       <c r="H21" s="83"/>
       <c r="I21" s="39"/>
       <c r="J21" s="40"/>
-      <c r="M21" s="39" t="n">
-        <v>446</v>
-      </c>
-      <c r="N21" s="40" t="n">
-        <v>5</v>
-      </c>
+      <c r="M21" s="39"/>
+      <c r="N21" s="40"/>
       <c r="O21" s="87"/>
       <c r="P21" s="84"/>
       <c r="Q21" s="85"/>
       <c r="R21" s="86"/>
-      <c r="S21" s="36" t="n">
-        <v>446</v>
-      </c>
+      <c r="S21" s="36"/>
       <c r="U21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="36" t="n">
         <v>2</v>
       </c>
       <c r="C22" s="36"/>
-      <c r="D22" s="36" t="n">
-        <v>0</v>
-      </c>
+      <c r="D22" s="36"/>
       <c r="E22" s="39"/>
       <c r="F22" s="40"/>
       <c r="G22" s="82"/>
@@ -2112,32 +2059,24 @@
       <c r="J22" s="40"/>
       <c r="K22" s="82"/>
       <c r="L22" s="83"/>
-      <c r="M22" s="39" t="n">
-        <v>446</v>
-      </c>
-      <c r="N22" s="40" t="n">
-        <v>5</v>
-      </c>
+      <c r="M22" s="39"/>
+      <c r="N22" s="40"/>
       <c r="O22" s="82"/>
       <c r="P22" s="84"/>
       <c r="Q22" s="85"/>
       <c r="R22" s="86"/>
-      <c r="S22" s="36" t="n">
-        <v>446</v>
-      </c>
+      <c r="S22" s="36"/>
       <c r="U22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="81" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="36" t="n">
         <v>5</v>
       </c>
       <c r="C23" s="36"/>
-      <c r="D23" s="75" t="n">
-        <v>0</v>
-      </c>
+      <c r="D23" s="75"/>
       <c r="E23" s="39"/>
       <c r="F23" s="40"/>
       <c r="G23" s="82"/>
@@ -2152,22 +2091,18 @@
       <c r="P23" s="84"/>
       <c r="Q23" s="85"/>
       <c r="R23" s="86"/>
-      <c r="S23" s="36" t="n">
-        <v>0</v>
-      </c>
+      <c r="S23" s="36"/>
       <c r="U23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="56" t="n">
         <v>6</v>
       </c>
       <c r="C24" s="56"/>
-      <c r="D24" s="56" t="n">
-        <v>0</v>
-      </c>
+      <c r="D24" s="56"/>
       <c r="E24" s="89"/>
       <c r="F24" s="60"/>
       <c r="G24" s="90"/>
@@ -2182,9 +2117,7 @@
       <c r="P24" s="92"/>
       <c r="Q24" s="93"/>
       <c r="R24" s="94"/>
-      <c r="S24" s="56" t="n">
-        <v>0</v>
-      </c>
+      <c r="S24" s="56"/>
       <c r="U24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2227,7 +2160,7 @@
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="96"/>
       <c r="C27" s="96"/>
@@ -2253,7 +2186,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="97" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28" s="98" t="s">
         <v>4</v>
@@ -2271,7 +2204,7 @@
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>8</v>
@@ -2287,11 +2220,11 @@
       <c r="C29" s="97"/>
       <c r="D29" s="98"/>
       <c r="E29" s="100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29" s="100"/>
       <c r="G29" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="10" t="s">
@@ -2381,23 +2314,17 @@
     </row>
     <row r="32" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32" s="112" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="112" t="n">
-        <v>153</v>
-      </c>
-      <c r="E32" s="113" t="n">
-        <v>153</v>
-      </c>
-      <c r="F32" s="114" t="s">
-        <v>33</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D32" s="112"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="114"/>
       <c r="G32" s="112"/>
       <c r="H32" s="115"/>
       <c r="I32" s="112"/>
@@ -2406,109 +2333,79 @@
       <c r="L32" s="112"/>
       <c r="M32" s="117"/>
       <c r="N32" s="117"/>
-      <c r="O32" s="29" t="n">
-        <v>0</v>
-      </c>
+      <c r="O32" s="29"/>
       <c r="U32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B33" s="49" t="n">
         <v>2</v>
       </c>
       <c r="C33" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="49" t="n">
-        <v>1110</v>
-      </c>
-      <c r="E33" s="49" t="n">
-        <v>394</v>
-      </c>
-      <c r="F33" s="118" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="49" t="n">
-        <v>333</v>
-      </c>
-      <c r="H33" s="119" t="s">
-        <v>35</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="118"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="119"/>
       <c r="I33" s="119"/>
       <c r="J33" s="118"/>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
       <c r="M33" s="120"/>
       <c r="N33" s="120"/>
-      <c r="O33" s="40" t="n">
-        <v>383</v>
-      </c>
+      <c r="O33" s="40"/>
       <c r="U33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B34" s="49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="49" t="n">
-        <v>1301</v>
-      </c>
+      <c r="D34" s="49"/>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
-      <c r="G34" s="49" t="n">
-        <v>519</v>
-      </c>
-      <c r="H34" s="121" t="s">
-        <v>36</v>
-      </c>
+      <c r="G34" s="49"/>
+      <c r="H34" s="121"/>
       <c r="I34" s="49"/>
       <c r="J34" s="122"/>
-      <c r="K34" s="49" t="n">
-        <v>532</v>
-      </c>
+      <c r="K34" s="49"/>
       <c r="L34" s="49"/>
       <c r="M34" s="120"/>
       <c r="N34" s="120"/>
-      <c r="O34" s="40" t="n">
-        <v>1314</v>
-      </c>
+      <c r="O34" s="40"/>
       <c r="U34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="123" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="123" t="n">
-        <v>281</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D35" s="123"/>
       <c r="E35" s="124"/>
       <c r="F35" s="123"/>
       <c r="G35" s="123"/>
       <c r="H35" s="124"/>
       <c r="I35" s="123"/>
       <c r="J35" s="125"/>
-      <c r="K35" s="123" t="n">
-        <v>931</v>
-      </c>
+      <c r="K35" s="123"/>
       <c r="L35" s="123"/>
       <c r="M35" s="126"/>
       <c r="N35" s="126"/>
-      <c r="O35" s="60" t="n">
-        <v>1212</v>
-      </c>
+      <c r="O35" s="60"/>
       <c r="U35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2528,30 +2425,21 @@
       <c r="O36" s="1"/>
       <c r="U36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="127"/>
       <c r="B37" s="127"/>
       <c r="C37" s="127"/>
-      <c r="D37" s="95" t="n">
-        <f aca="false">SUM(D32:D35)</f>
-        <v>2845</v>
-      </c>
+      <c r="D37" s="95"/>
       <c r="E37" s="95"/>
       <c r="F37" s="95"/>
-      <c r="G37" s="95" t="n">
-        <f aca="false">SUM(G32:G35)</f>
-        <v>852</v>
-      </c>
+      <c r="G37" s="95"/>
       <c r="H37" s="95"/>
       <c r="I37" s="128"/>
       <c r="J37" s="95"/>
       <c r="K37" s="127"/>
       <c r="L37" s="95"/>
       <c r="M37" s="1"/>
-      <c r="O37" s="95" t="n">
-        <f aca="false">SUM(O32:O35)</f>
-        <v>2909</v>
-      </c>
+      <c r="O37" s="95"/>
       <c r="U37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,7 +2481,7 @@
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B41" s="129"/>
       <c r="C41" s="129"/>
@@ -2608,7 +2496,20 @@
       <c r="L41" s="129"/>
       <c r="U41" s="0"/>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="130"/>
+      <c r="E42" s="130"/>
+      <c r="G42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="J42" s="130"/>
+      <c r="K42" s="130"/>
       <c r="U42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,7 +2682,7 @@
       <c r="Q53" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="45">
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D4:D6"/>
@@ -2825,9 +2726,11 @@
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
     <mergeCell ref="A41:L41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="I42:K42"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.669444444444445" right="0" top="0.39375" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.669444444444444" right="0" top="0.39375" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="59" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -2837,25 +2740,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O8" activeCellId="0" sqref="O8:P25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="1" width="13.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.42"/>
@@ -2865,7 +2768,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="13.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2888,16 +2791,16 @@
       <c r="T2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="130"/>
+      <c r="I3" s="131"/>
       <c r="R3" s="0"/>
       <c r="S3" s="0"/>
       <c r="T3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="133" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -2911,13 +2814,13 @@
       <c r="G4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="133" t="s">
+      <c r="H4" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
       <c r="M4" s="25" t="s">
         <v>46</v>
       </c>
@@ -2931,14 +2834,14 @@
       <c r="T4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="131"/>
-      <c r="B5" s="132"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="134" t="s">
+      <c r="H5" s="135" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="119" t="s">
@@ -2962,15 +2865,15 @@
       <c r="T5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="134" t="s">
+      <c r="A6" s="132"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="135" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="135" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="47" t="s">
@@ -2979,7 +2882,7 @@
       <c r="G6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="H6" s="135" t="s">
         <v>54</v>
       </c>
       <c r="I6" s="119" t="s">
@@ -2992,13 +2895,13 @@
         <v>54</v>
       </c>
       <c r="L6" s="47"/>
-      <c r="M6" s="134" t="s">
+      <c r="M6" s="135" t="s">
         <v>54</v>
       </c>
       <c r="N6" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="134" t="s">
+      <c r="O6" s="135" t="s">
         <v>52</v>
       </c>
       <c r="P6" s="47" t="s">
@@ -3009,22 +2912,22 @@
       <c r="T6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="131"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="134" t="s">
+      <c r="A7" s="132"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="135" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="135" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="47"/>
       <c r="G7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="134" t="s">
+      <c r="H7" s="135" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="119" t="s">
@@ -3037,11 +2940,11 @@
         <v>21</v>
       </c>
       <c r="L7" s="47"/>
-      <c r="M7" s="134" t="s">
+      <c r="M7" s="135" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="47"/>
-      <c r="O7" s="134" t="s">
+      <c r="O7" s="135" t="s">
         <v>21</v>
       </c>
       <c r="P7" s="47" t="s">
@@ -3052,448 +2955,314 @@
       <c r="T7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="136" t="n">
+      <c r="A8" s="137" t="n">
         <v>52</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="137" t="n">
-        <v>192</v>
-      </c>
-      <c r="D8" s="138" t="n">
-        <v>618</v>
-      </c>
-      <c r="E8" s="139" t="n">
-        <v>104</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="140" t="n">
-        <v>53</v>
-      </c>
-      <c r="H8" s="139"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="138"/>
-      <c r="O8" s="137" t="n">
-        <v>243</v>
-      </c>
-      <c r="P8" s="138" t="n">
-        <v>618</v>
-      </c>
+      <c r="C8" s="138"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="142"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="138"/>
+      <c r="P8" s="139"/>
       <c r="R8" s="0"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="136"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="142" t="n">
-        <v>1091</v>
-      </c>
-      <c r="D9" s="143" t="n">
-        <v>1870</v>
-      </c>
-      <c r="E9" s="59" t="n">
-        <v>62</v>
-      </c>
-      <c r="F9" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="144" t="n">
-        <v>115</v>
-      </c>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="145"/>
       <c r="H9" s="59"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="143"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="144"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="142" t="n">
-        <v>1038</v>
-      </c>
-      <c r="P9" s="143" t="n">
-        <v>1870</v>
-      </c>
+      <c r="N9" s="144"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="144"/>
       <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="146" t="n">
+      <c r="A10" s="147" t="n">
         <v>53</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="137" t="n">
-        <v>239</v>
-      </c>
-      <c r="D10" s="138" t="n">
-        <v>618</v>
-      </c>
-      <c r="E10" s="139"/>
+      <c r="C10" s="138"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="140"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="138"/>
-      <c r="O10" s="137" t="n">
-        <v>225</v>
-      </c>
-      <c r="P10" s="138" t="n">
-        <v>618</v>
-      </c>
+      <c r="G10" s="141"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
       <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="146"/>
+      <c r="A11" s="147"/>
       <c r="B11" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="142" t="n">
-        <v>2068</v>
-      </c>
-      <c r="D11" s="143" t="n">
-        <v>768</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C11" s="143"/>
+      <c r="D11" s="144"/>
       <c r="E11" s="59"/>
       <c r="F11" s="60"/>
-      <c r="G11" s="147"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="59"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="143"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="144"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="142" t="n">
-        <v>1958</v>
-      </c>
-      <c r="P11" s="143" t="n">
-        <v>768</v>
-      </c>
+      <c r="N11" s="144"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="144"/>
       <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="146" t="n">
+      <c r="A12" s="147" t="n">
         <v>54</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="137" t="n">
-        <v>200</v>
-      </c>
-      <c r="D12" s="138" t="n">
-        <v>618</v>
-      </c>
-      <c r="E12" s="139" t="n">
-        <v>94</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="140" t="n">
-        <v>35</v>
-      </c>
-      <c r="H12" s="139"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="138"/>
-      <c r="O12" s="137" t="n">
-        <v>259</v>
-      </c>
-      <c r="P12" s="138" t="n">
-        <v>618</v>
-      </c>
+      <c r="C12" s="138"/>
+      <c r="D12" s="139"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="140"/>
+      <c r="N12" s="139"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
       <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="146"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="142" t="n">
-        <v>1065</v>
-      </c>
-      <c r="D13" s="143" t="n">
-        <v>1870</v>
-      </c>
-      <c r="E13" s="89" t="n">
-        <v>48</v>
-      </c>
-      <c r="F13" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="147" t="n">
-        <v>84</v>
-      </c>
+      <c r="C13" s="143"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="148"/>
       <c r="H13" s="59"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="143"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
+      <c r="K13" s="146"/>
+      <c r="L13" s="144"/>
       <c r="M13" s="59"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="142" t="n">
-        <v>1029</v>
-      </c>
-      <c r="P13" s="143" t="n">
-        <v>1870</v>
-      </c>
+      <c r="N13" s="144"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="144"/>
       <c r="R13" s="0"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="146" t="n">
+      <c r="A14" s="147" t="n">
         <v>55</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="137" t="n">
-        <v>190</v>
-      </c>
-      <c r="D14" s="138" t="n">
-        <v>618</v>
-      </c>
+      <c r="C14" s="138"/>
+      <c r="D14" s="139"/>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="138"/>
-      <c r="O14" s="137" t="n">
-        <v>234</v>
-      </c>
-      <c r="P14" s="138" t="n">
-        <v>618</v>
-      </c>
+      <c r="G14" s="141"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="140"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
       <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="146"/>
-      <c r="B15" s="147" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="142" t="n">
-        <v>990</v>
-      </c>
-      <c r="D15" s="143" t="n">
-        <v>1870</v>
-      </c>
+      <c r="A15" s="147"/>
+      <c r="B15" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
       <c r="E15" s="89"/>
       <c r="F15" s="60"/>
-      <c r="G15" s="147"/>
+      <c r="G15" s="148"/>
       <c r="H15" s="59"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="143"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="144"/>
       <c r="M15" s="59"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="142" t="n">
-        <v>1901</v>
-      </c>
-      <c r="P15" s="143" t="n">
-        <v>768</v>
-      </c>
+      <c r="N15" s="144"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="144"/>
       <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="146" t="n">
+      <c r="A16" s="147" t="n">
         <v>61</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="148" t="n">
-        <v>214</v>
-      </c>
-      <c r="D16" s="138" t="n">
-        <v>618</v>
-      </c>
-      <c r="E16" s="149"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="148" t="n">
-        <v>207</v>
-      </c>
-      <c r="P16" s="138" t="n">
-        <v>618</v>
-      </c>
+      <c r="C16" s="149"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="140"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="139"/>
       <c r="R16" s="0"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="146"/>
+      <c r="A17" s="147"/>
       <c r="B17" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="152" t="n">
-        <v>968</v>
-      </c>
-      <c r="D17" s="143" t="n">
-        <v>1870</v>
-      </c>
-      <c r="E17" s="153"/>
+        <v>56</v>
+      </c>
+      <c r="C17" s="153"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="154"/>
       <c r="F17" s="60"/>
-      <c r="G17" s="154"/>
+      <c r="G17" s="155"/>
       <c r="H17" s="59"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="143"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
+      <c r="K17" s="146"/>
+      <c r="L17" s="144"/>
       <c r="M17" s="59"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="152" t="n">
-        <v>1958</v>
-      </c>
-      <c r="P17" s="143" t="n">
-        <v>768</v>
-      </c>
+      <c r="N17" s="144"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="144"/>
       <c r="R17" s="0"/>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="146" t="n">
+      <c r="A18" s="147" t="n">
         <v>62</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="148" t="n">
-        <v>180</v>
-      </c>
-      <c r="D18" s="138" t="n">
-        <v>618</v>
-      </c>
-      <c r="E18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="150"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="138"/>
-      <c r="O18" s="148" t="n">
-        <v>189</v>
-      </c>
-      <c r="P18" s="138" t="n">
-        <v>618</v>
-      </c>
+      <c r="G18" s="152"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="139"/>
       <c r="R18" s="0"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="146"/>
-      <c r="B19" s="147" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="152" t="n">
-        <v>1038</v>
-      </c>
-      <c r="D19" s="143" t="n">
-        <v>1870</v>
-      </c>
-      <c r="E19" s="153"/>
+      <c r="A19" s="147"/>
+      <c r="B19" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="153"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="154"/>
       <c r="F19" s="60"/>
-      <c r="G19" s="154"/>
+      <c r="G19" s="155"/>
       <c r="H19" s="59"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="143"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
+      <c r="K19" s="146"/>
+      <c r="L19" s="144"/>
       <c r="M19" s="59"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="152" t="n">
-        <v>2002</v>
-      </c>
-      <c r="P19" s="143" t="n">
-        <v>768</v>
-      </c>
+      <c r="N19" s="144"/>
+      <c r="O19" s="153"/>
+      <c r="P19" s="144"/>
       <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
     </row>
-    <row r="20" s="155" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="146" t="n">
+    <row r="20" s="156" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="147" t="n">
         <v>63</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="148" t="n">
-        <v>280</v>
-      </c>
-      <c r="D20" s="138" t="n">
-        <v>618</v>
-      </c>
-      <c r="E20" s="28" t="n">
-        <v>135</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="151" t="n">
-        <v>129</v>
-      </c>
-      <c r="H20" s="139"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="148" t="n">
-        <v>286</v>
-      </c>
-      <c r="P20" s="138" t="n">
-        <v>618</v>
-      </c>
+      <c r="C20" s="149"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="140"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="139"/>
       <c r="R20" s="0"/>
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
@@ -3503,37 +3272,25 @@
       <c r="X20" s="0"/>
       <c r="Y20" s="0"/>
     </row>
-    <row r="21" s="155" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="146"/>
-      <c r="B21" s="147" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="152" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D21" s="143" t="n">
-        <v>768</v>
-      </c>
-      <c r="E21" s="89" t="n">
-        <v>154</v>
-      </c>
-      <c r="F21" s="60" t="s">
+    <row r="21" s="156" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="147"/>
+      <c r="B21" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="154"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="155"/>
       <c r="H21" s="59"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="143"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="144"/>
       <c r="M21" s="59"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="152" t="n">
-        <v>1065</v>
-      </c>
-      <c r="P21" s="143" t="n">
-        <v>1870</v>
-      </c>
+      <c r="N21" s="144"/>
+      <c r="O21" s="153"/>
+      <c r="P21" s="144"/>
       <c r="R21" s="0"/>
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
@@ -3543,35 +3300,27 @@
       <c r="X21" s="0"/>
       <c r="Y21" s="0"/>
     </row>
-    <row r="22" s="155" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="146" t="n">
+    <row r="22" s="156" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="147" t="n">
         <v>64</v>
       </c>
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="139" t="n">
-        <v>219</v>
-      </c>
-      <c r="D22" s="138" t="n">
-        <v>618</v>
-      </c>
+      <c r="C22" s="140"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="28"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="139" t="n">
-        <v>293</v>
-      </c>
-      <c r="P22" s="138" t="n">
-        <v>618</v>
-      </c>
+      <c r="G22" s="141"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="140"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="140"/>
+      <c r="P22" s="139"/>
       <c r="R22" s="0"/>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
@@ -3581,39 +3330,25 @@
       <c r="X22" s="0"/>
       <c r="Y22" s="0"/>
     </row>
-    <row r="23" s="155" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="146"/>
-      <c r="B23" s="147" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="59" t="n">
-        <v>1086</v>
-      </c>
-      <c r="D23" s="143" t="n">
-        <v>1870</v>
-      </c>
-      <c r="E23" s="153" t="n">
-        <v>255</v>
-      </c>
-      <c r="F23" s="60" t="s">
+    <row r="23" s="156" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="147"/>
+      <c r="B23" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="147" t="n">
-        <v>294</v>
-      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="154"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="148"/>
       <c r="H23" s="59"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="143"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="144"/>
       <c r="M23" s="59"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="59" t="n">
-        <v>1047</v>
-      </c>
-      <c r="P23" s="143" t="n">
-        <v>1870</v>
-      </c>
+      <c r="N23" s="144"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="144"/>
       <c r="R23" s="0"/>
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
@@ -3623,35 +3358,27 @@
       <c r="X23" s="0"/>
       <c r="Y23" s="0"/>
     </row>
-    <row r="24" s="155" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="156" t="n">
+    <row r="24" s="156" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="157" t="n">
         <v>65</v>
       </c>
-      <c r="B24" s="140" t="s">
+      <c r="B24" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="139" t="n">
-        <v>253</v>
-      </c>
-      <c r="D24" s="138" t="n">
-        <v>618</v>
-      </c>
-      <c r="E24" s="139"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="140"/>
       <c r="F24" s="29"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="139" t="n">
-        <v>251</v>
-      </c>
-      <c r="P24" s="138" t="n">
-        <v>618</v>
-      </c>
+      <c r="G24" s="141"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="140"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="140"/>
+      <c r="P24" s="139"/>
       <c r="R24" s="0"/>
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
@@ -3662,44 +3389,36 @@
       <c r="Y24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="156"/>
-      <c r="B25" s="147" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="59" t="n">
-        <v>1918</v>
-      </c>
-      <c r="D25" s="143" t="n">
-        <v>768</v>
-      </c>
+      <c r="A25" s="157"/>
+      <c r="B25" s="148" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="144"/>
       <c r="E25" s="59"/>
       <c r="F25" s="60"/>
-      <c r="G25" s="147"/>
+      <c r="G25" s="148"/>
       <c r="H25" s="59"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="143"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="144"/>
       <c r="M25" s="59"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="59" t="n">
-        <v>1914</v>
-      </c>
-      <c r="P25" s="143" t="n">
-        <v>768</v>
-      </c>
+      <c r="N25" s="144"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="144"/>
       <c r="R25" s="0"/>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="157"/>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="129" t="s">
-        <v>58</v>
-      </c>
+    <row r="26" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="129" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="129"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="129"/>
       <c r="F26" s="129"/>
       <c r="G26" s="129"/>
       <c r="H26" s="129"/>
@@ -3707,31 +3426,29 @@
       <c r="J26" s="129"/>
       <c r="K26" s="129"/>
       <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
-      <c r="O26" s="129"/>
-      <c r="P26" s="129"/>
+      <c r="M26" s="0"/>
+      <c r="O26" s="0"/>
       <c r="R26" s="0"/>
       <c r="S26" s="0"/>
       <c r="T26" s="0"/>
     </row>
-    <row r="27" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="157"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="157"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="157"/>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="130" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="G27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="130"/>
+      <c r="K27" s="130"/>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="O27" s="0"/>
       <c r="R27" s="0"/>
       <c r="S27" s="0"/>
       <c r="T27" s="0"/>
@@ -3787,7 +3504,7 @@
       <c r="D31" s="158"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
@@ -3807,10 +3524,12 @@
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E26:P26"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="I27:K27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.440277777777778" right="0" top="1.00972222222222" bottom="0" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.440277777777778" right="0" top="1.00972222222222" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="77" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/static/oil_reports/oil_report_template.xlsx
+++ b/static/oil_reports/oil_report_template.xlsx
@@ -8,12 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Склад2 КЦ-5,6 " sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Склад2 КЦ-5,6" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Цех5,6" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Склад2 КЦ-5,6 '!$A$1:$S$43</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Склад2 КЦ-5,6 '!$A$1:$S$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Склад2 КЦ-5,6'!$A$1:$S$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">'Склад2 КЦ-5,6'!$A$1:$S$43</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">цех5,6!$A$1:$P$27</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -1435,11 +1435,11 @@
   </sheetPr>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S19" activeCellId="0" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.71"/>
@@ -2076,7 +2076,9 @@
         <v>5</v>
       </c>
       <c r="C23" s="36"/>
-      <c r="D23" s="75"/>
+      <c r="D23" s="75" t="n">
+        <v>0</v>
+      </c>
       <c r="E23" s="39"/>
       <c r="F23" s="40"/>
       <c r="G23" s="82"/>
@@ -2091,7 +2093,9 @@
       <c r="P23" s="84"/>
       <c r="Q23" s="85"/>
       <c r="R23" s="86"/>
-      <c r="S23" s="36"/>
+      <c r="S23" s="36" t="n">
+        <v>0</v>
+      </c>
       <c r="U23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2102,7 +2106,9 @@
         <v>6</v>
       </c>
       <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="D24" s="56" t="n">
+        <v>0</v>
+      </c>
       <c r="E24" s="89"/>
       <c r="F24" s="60"/>
       <c r="G24" s="90"/>
@@ -2117,7 +2123,9 @@
       <c r="P24" s="92"/>
       <c r="Q24" s="93"/>
       <c r="R24" s="94"/>
-      <c r="S24" s="56"/>
+      <c r="S24" s="56" t="n">
+        <v>0</v>
+      </c>
       <c r="U24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2365,7 +2373,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" s="49" t="s">
         <v>33</v>
@@ -2389,7 +2397,7 @@
         <v>25</v>
       </c>
       <c r="B35" s="123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="123" t="s">
         <v>34</v>
@@ -2425,21 +2433,30 @@
       <c r="O36" s="1"/>
       <c r="U36" s="0"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="127"/>
       <c r="B37" s="127"/>
       <c r="C37" s="127"/>
-      <c r="D37" s="95"/>
+      <c r="D37" s="95" t="n">
+        <f aca="false">SUM(D32:D35)</f>
+        <v>0</v>
+      </c>
       <c r="E37" s="95"/>
       <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
+      <c r="G37" s="95" t="n">
+        <f aca="false">SUM(G32:G35)</f>
+        <v>0</v>
+      </c>
       <c r="H37" s="95"/>
       <c r="I37" s="128"/>
       <c r="J37" s="95"/>
       <c r="K37" s="127"/>
       <c r="L37" s="95"/>
       <c r="M37" s="1"/>
-      <c r="O37" s="95"/>
+      <c r="O37" s="95" t="n">
+        <f aca="false">SUM(O32:O35)</f>
+        <v>0</v>
+      </c>
       <c r="U37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,10 +2764,10 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.01"/>

--- a/static/oil_reports/oil_report_template.xlsx
+++ b/static/oil_reports/oil_report_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Склад2 КЦ-5,6" sheetId="1" state="visible" r:id="rId2"/>
@@ -208,7 +208,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -257,16 +257,31 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -274,31 +289,13 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -326,7 +323,7 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
@@ -779,7 +776,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="175">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -888,32 +885,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -924,18 +921,214 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -944,27 +1137,235 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -972,358 +1373,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1332,39 +1381,39 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="56" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="57" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1372,35 +1421,47 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1412,7 +1473,7 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1435,11 +1496,11 @@
   </sheetPr>
   <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S19" activeCellId="0" sqref="S19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="65" zoomScaleNormal="100" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="4.71"/>
@@ -1970,233 +2031,235 @@
       <c r="A19" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="27" t="n">
+      <c r="B19" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="28"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="77"/>
       <c r="N19" s="78"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="27"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="85"/>
+      <c r="S19" s="75"/>
       <c r="U19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="36" t="n">
+      <c r="B20" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="36"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="92"/>
+      <c r="Q20" s="93"/>
+      <c r="R20" s="94"/>
+      <c r="S20" s="87"/>
       <c r="U20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="36" t="n">
+      <c r="B21" s="87" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="40"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="36"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="93"/>
+      <c r="R21" s="94"/>
+      <c r="S21" s="87"/>
       <c r="U21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="36" t="n">
+      <c r="B22" s="87" t="n">
         <v>2</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="84"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="36"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="93"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="87"/>
       <c r="U22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="36" t="n">
+      <c r="B23" s="87" t="n">
         <v>5</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="75" t="n">
+      <c r="C23" s="87"/>
+      <c r="D23" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="36" t="n">
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="88"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="93"/>
+      <c r="R23" s="94"/>
+      <c r="S23" s="87" t="n">
         <v>0</v>
       </c>
       <c r="U23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="56" t="n">
+      <c r="B24" s="99" t="n">
         <v>6</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56" t="n">
+      <c r="C24" s="99"/>
+      <c r="D24" s="99" t="n">
         <v>0</v>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="89"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="92"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="94"/>
-      <c r="S24" s="56" t="n">
+      <c r="E24" s="100"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="105"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="99" t="n">
         <v>0</v>
       </c>
       <c r="U24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="95"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
-      <c r="H25" s="95"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
       <c r="O25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="U25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="10.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="95"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
       <c r="O26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="75"/>
+      <c r="S26" s="76"/>
       <c r="U26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="96" t="s">
+      <c r="A27" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
       <c r="U27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="97" t="s">
+      <c r="C28" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="98" t="s">
+      <c r="D28" s="110" t="s">
         <v>4</v>
       </c>
       <c r="E28" s="7" t="s">
@@ -2217,20 +2280,20 @@
       <c r="N28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="O28" s="99" t="s">
+      <c r="O28" s="111" t="s">
         <v>9</v>
       </c>
       <c r="U28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="74.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="68"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="100" t="s">
+      <c r="B29" s="109"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="100"/>
+      <c r="F29" s="112"/>
       <c r="G29" s="9" t="s">
         <v>30</v>
       </c>
@@ -2245,18 +2308,18 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="10"/>
-      <c r="O29" s="99"/>
+      <c r="O29" s="111"/>
       <c r="U29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="61.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="68"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="101" t="s">
+      <c r="B30" s="109"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="102" t="s">
+      <c r="F30" s="114" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="13" t="s">
@@ -2265,50 +2328,50 @@
       <c r="H30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I30" s="101" t="s">
+      <c r="I30" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="J30" s="103" t="s">
+      <c r="J30" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="104" t="s">
+      <c r="K30" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="102" t="s">
+      <c r="L30" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="M30" s="105" t="s">
+      <c r="M30" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="106" t="s">
+      <c r="N30" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="O30" s="99"/>
+      <c r="O30" s="111"/>
       <c r="U30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="107"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="120"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="22" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="109"/>
+      <c r="F31" s="121"/>
       <c r="G31" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="109"/>
+      <c r="H31" s="121"/>
       <c r="I31" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="110"/>
+      <c r="J31" s="122"/>
       <c r="K31" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L31" s="111"/>
+      <c r="L31" s="123"/>
       <c r="M31" s="19" t="s">
         <v>21</v>
       </c>
@@ -2321,174 +2384,174 @@
       <c r="U31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="112" t="n">
+      <c r="B32" s="124" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="112" t="s">
+      <c r="C32" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="126"/>
+      <c r="N32" s="126"/>
       <c r="O32" s="29"/>
       <c r="U32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="49" t="n">
+      <c r="B33" s="129" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="129" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="49"/>
       <c r="E33" s="49"/>
-      <c r="F33" s="118"/>
+      <c r="F33" s="130"/>
       <c r="G33" s="49"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="118"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="130"/>
       <c r="K33" s="49"/>
       <c r="L33" s="49"/>
-      <c r="M33" s="120"/>
-      <c r="N33" s="120"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
       <c r="O33" s="40"/>
       <c r="U33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="49" t="n">
+      <c r="B34" s="129" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="129" t="s">
         <v>33</v>
       </c>
       <c r="D34" s="49"/>
       <c r="E34" s="49"/>
       <c r="F34" s="49"/>
       <c r="G34" s="49"/>
-      <c r="H34" s="121"/>
+      <c r="H34" s="133"/>
       <c r="I34" s="49"/>
-      <c r="J34" s="122"/>
+      <c r="J34" s="130"/>
       <c r="K34" s="49"/>
       <c r="L34" s="49"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
       <c r="O34" s="40"/>
       <c r="U34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="123" t="n">
+      <c r="B35" s="134" t="n">
         <v>2</v>
       </c>
-      <c r="C35" s="123" t="s">
+      <c r="C35" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="123"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="135"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="137"/>
+      <c r="K35" s="135"/>
+      <c r="L35" s="135"/>
+      <c r="M35" s="136"/>
+      <c r="N35" s="136"/>
       <c r="O35" s="60"/>
       <c r="U35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="127"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="95"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="138"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="107"/>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
       <c r="M36" s="1"/>
       <c r="O36" s="1"/>
       <c r="U36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="127"/>
-      <c r="B37" s="127"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="95" t="n">
+      <c r="A37" s="138"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="107" t="n">
         <f aca="false">SUM(D32:D35)</f>
         <v>0</v>
       </c>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95" t="n">
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107" t="n">
         <f aca="false">SUM(G32:G35)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="95"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="95"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="138"/>
+      <c r="L37" s="107"/>
       <c r="M37" s="1"/>
-      <c r="O37" s="95" t="n">
+      <c r="O37" s="107" t="n">
         <f aca="false">SUM(O32:O35)</f>
         <v>0</v>
       </c>
       <c r="U37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="127"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
+      <c r="A38" s="138"/>
+      <c r="B38" s="138"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
       <c r="M38" s="1"/>
-      <c r="O38" s="75"/>
+      <c r="O38" s="76"/>
       <c r="U38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="127"/>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
+      <c r="A39" s="138"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="107"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
       <c r="M39" s="1"/>
       <c r="O39" s="1"/>
       <c r="U39" s="0"/>
@@ -2497,36 +2560,36 @@
       <c r="U40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="129" t="s">
+      <c r="A41" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="129"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
+      <c r="B41" s="140"/>
+      <c r="C41" s="140"/>
+      <c r="D41" s="140"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
+      <c r="K41" s="140"/>
+      <c r="L41" s="140"/>
       <c r="U41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="130" t="s">
+      <c r="C42" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="130"/>
-      <c r="E42" s="130"/>
+      <c r="D42" s="141"/>
+      <c r="E42" s="141"/>
       <c r="G42" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I42" s="130" t="s">
+      <c r="I42" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J42" s="130"/>
-      <c r="K42" s="130"/>
+      <c r="J42" s="141"/>
+      <c r="K42" s="141"/>
       <c r="U42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2763,11 +2826,11 @@
   </sheetPr>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="100" zoomScalePageLayoutView="65" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8:P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="5.01"/>
@@ -2797,27 +2860,27 @@
       <c r="T1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
       <c r="R2" s="0"/>
       <c r="S2" s="0"/>
       <c r="T2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="131"/>
+      <c r="I3" s="142"/>
       <c r="R3" s="0"/>
       <c r="S3" s="0"/>
       <c r="T3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="132" t="s">
+      <c r="A4" s="143" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="144" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="25" t="s">
@@ -2831,13 +2894,13 @@
       <c r="G4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="134" t="s">
+      <c r="H4" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
       <c r="M4" s="25" t="s">
         <v>46</v>
       </c>
@@ -2851,26 +2914,26 @@
       <c r="T4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="64.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="132"/>
-      <c r="B5" s="133"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="146" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="119" t="s">
+      <c r="I5" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="119" t="s">
+      <c r="J5" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="119" t="s">
+      <c r="K5" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="47" t="s">
+      <c r="L5" s="148" t="s">
         <v>51</v>
       </c>
       <c r="M5" s="25"/>
@@ -2882,46 +2945,46 @@
       <c r="T5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="132"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="135" t="s">
+      <c r="A6" s="143"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="135" t="s">
+      <c r="E6" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="148" t="s">
         <v>51</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="119" t="s">
+      <c r="I6" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="119" t="s">
+      <c r="J6" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="119" t="s">
+      <c r="K6" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="47"/>
-      <c r="M6" s="135" t="s">
+      <c r="L6" s="148"/>
+      <c r="M6" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="135" t="s">
+      <c r="O6" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="47" t="s">
+      <c r="P6" s="148" t="s">
         <v>53</v>
       </c>
       <c r="R6" s="0"/>
@@ -2929,42 +2992,42 @@
       <c r="T6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="132"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="47"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="148" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="148"/>
       <c r="G7" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="47" t="s">
+      <c r="H7" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="147" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="148"/>
+      <c r="M7" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="148"/>
+      <c r="O7" s="146" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="148" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="0"/>
@@ -2972,314 +3035,314 @@
       <c r="T7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="137" t="n">
+      <c r="A8" s="150" t="n">
         <v>52</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="140"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="153"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="139"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="155"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="153"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="151"/>
+      <c r="P8" s="152"/>
       <c r="R8" s="0"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="137"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="150"/>
+      <c r="B9" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="157"/>
       <c r="E9" s="59"/>
       <c r="F9" s="60"/>
-      <c r="G9" s="145"/>
+      <c r="G9" s="158"/>
       <c r="H9" s="59"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="144"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="157"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="144"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="157"/>
       <c r="R9" s="0"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="147" t="n">
+      <c r="A10" s="160" t="n">
         <v>53</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="140"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="153"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="139"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="153"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="152"/>
+      <c r="O10" s="151"/>
+      <c r="P10" s="152"/>
       <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="147"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="160"/>
+      <c r="B11" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="144"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="59"/>
       <c r="F11" s="60"/>
-      <c r="G11" s="148"/>
+      <c r="G11" s="161"/>
       <c r="H11" s="59"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="144"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="157"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="144"/>
+      <c r="N11" s="157"/>
+      <c r="O11" s="156"/>
+      <c r="P11" s="157"/>
       <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="147" t="n">
+      <c r="A12" s="160" t="n">
         <v>54</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="138"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="140"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="153"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="138"/>
-      <c r="P12" s="139"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="152"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="152"/>
       <c r="R12" s="0"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="147"/>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="160"/>
+      <c r="B13" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="89"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="157"/>
+      <c r="E13" s="162"/>
       <c r="F13" s="60"/>
-      <c r="G13" s="148"/>
+      <c r="G13" s="161"/>
       <c r="H13" s="59"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="144"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="157"/>
       <c r="M13" s="59"/>
-      <c r="N13" s="144"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="144"/>
+      <c r="N13" s="157"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="157"/>
       <c r="R13" s="0"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="147" t="n">
+      <c r="A14" s="160" t="n">
         <v>55</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="138"/>
-      <c r="D14" s="139"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="28"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="138"/>
-      <c r="P14" s="139"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="152"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="152"/>
       <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="147"/>
-      <c r="B15" s="148" t="s">
+      <c r="A15" s="160"/>
+      <c r="B15" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="89"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="162"/>
       <c r="F15" s="60"/>
-      <c r="G15" s="148"/>
+      <c r="G15" s="161"/>
       <c r="H15" s="59"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="144"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="157"/>
       <c r="M15" s="59"/>
-      <c r="N15" s="144"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="144"/>
+      <c r="N15" s="157"/>
+      <c r="O15" s="156"/>
+      <c r="P15" s="157"/>
       <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="147" t="n">
+      <c r="A16" s="160" t="n">
         <v>61</v>
       </c>
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="149"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="139"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="152"/>
+      <c r="O16" s="165"/>
+      <c r="P16" s="152"/>
       <c r="R16" s="0"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="147"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="160"/>
+      <c r="B17" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="153"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="154"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="157"/>
+      <c r="E17" s="170"/>
       <c r="F17" s="60"/>
-      <c r="G17" s="155"/>
+      <c r="G17" s="171"/>
       <c r="H17" s="59"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="144"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="159"/>
+      <c r="L17" s="157"/>
       <c r="M17" s="59"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="144"/>
+      <c r="N17" s="157"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="157"/>
       <c r="R17" s="0"/>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="147" t="n">
+      <c r="A18" s="160" t="n">
         <v>62</v>
       </c>
-      <c r="B18" s="141" t="s">
+      <c r="B18" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="149"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="150"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="166"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="149"/>
-      <c r="P18" s="139"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="152"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="152"/>
       <c r="R18" s="0"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="147"/>
-      <c r="B19" s="148" t="s">
+      <c r="A19" s="160"/>
+      <c r="B19" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="153"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="154"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="170"/>
       <c r="F19" s="60"/>
-      <c r="G19" s="155"/>
+      <c r="G19" s="171"/>
       <c r="H19" s="59"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="144"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="157"/>
       <c r="M19" s="59"/>
-      <c r="N19" s="144"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="144"/>
+      <c r="N19" s="157"/>
+      <c r="O19" s="169"/>
+      <c r="P19" s="157"/>
       <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
     </row>
-    <row r="20" s="156" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="147" t="n">
+    <row r="20" s="172" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="160" t="n">
         <v>63</v>
       </c>
-      <c r="B20" s="141" t="s">
+      <c r="B20" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="149"/>
-      <c r="D20" s="139"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="152"/>
       <c r="E20" s="28"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="140"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="149"/>
-      <c r="P20" s="139"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="152"/>
+      <c r="O20" s="165"/>
+      <c r="P20" s="152"/>
       <c r="R20" s="0"/>
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
@@ -3289,25 +3352,25 @@
       <c r="X20" s="0"/>
       <c r="Y20" s="0"/>
     </row>
-    <row r="21" s="156" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="147"/>
-      <c r="B21" s="148" t="s">
+    <row r="21" s="172" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="160"/>
+      <c r="B21" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="153"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="89"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="162"/>
       <c r="F21" s="60"/>
-      <c r="G21" s="155"/>
+      <c r="G21" s="171"/>
       <c r="H21" s="59"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="144"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="157"/>
       <c r="M21" s="59"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="144"/>
+      <c r="N21" s="157"/>
+      <c r="O21" s="169"/>
+      <c r="P21" s="157"/>
       <c r="R21" s="0"/>
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
@@ -3317,27 +3380,27 @@
       <c r="X21" s="0"/>
       <c r="Y21" s="0"/>
     </row>
-    <row r="22" s="156" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="147" t="n">
+    <row r="22" s="172" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="160" t="n">
         <v>64</v>
       </c>
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="140"/>
-      <c r="D22" s="139"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="152"/>
       <c r="E22" s="28"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="140"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="140"/>
-      <c r="P22" s="139"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="152"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="152"/>
       <c r="R22" s="0"/>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
@@ -3347,25 +3410,25 @@
       <c r="X22" s="0"/>
       <c r="Y22" s="0"/>
     </row>
-    <row r="23" s="156" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="147"/>
-      <c r="B23" s="148" t="s">
+    <row r="23" s="172" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="160"/>
+      <c r="B23" s="163" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="59"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="154"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="170"/>
       <c r="F23" s="60"/>
-      <c r="G23" s="148"/>
+      <c r="G23" s="161"/>
       <c r="H23" s="59"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="144"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="157"/>
       <c r="M23" s="59"/>
-      <c r="N23" s="144"/>
+      <c r="N23" s="157"/>
       <c r="O23" s="59"/>
-      <c r="P23" s="144"/>
+      <c r="P23" s="157"/>
       <c r="R23" s="0"/>
       <c r="S23" s="0"/>
       <c r="T23" s="0"/>
@@ -3375,27 +3438,27 @@
       <c r="X23" s="0"/>
       <c r="Y23" s="0"/>
     </row>
-    <row r="24" s="156" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="157" t="n">
+    <row r="24" s="172" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="173" t="n">
         <v>65</v>
       </c>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="164" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="140"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="153"/>
       <c r="F24" s="29"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="140"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="140"/>
-      <c r="P24" s="139"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+      <c r="K24" s="155"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="152"/>
+      <c r="O24" s="153"/>
+      <c r="P24" s="152"/>
       <c r="R24" s="0"/>
       <c r="S24" s="0"/>
       <c r="T24" s="0"/>
@@ -3406,43 +3469,43 @@
       <c r="Y24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="157"/>
-      <c r="B25" s="148" t="s">
+      <c r="A25" s="173"/>
+      <c r="B25" s="163" t="s">
         <v>56</v>
       </c>
       <c r="C25" s="59"/>
-      <c r="D25" s="144"/>
+      <c r="D25" s="157"/>
       <c r="E25" s="59"/>
       <c r="F25" s="60"/>
-      <c r="G25" s="148"/>
+      <c r="G25" s="161"/>
       <c r="H25" s="59"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="144"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="159"/>
+      <c r="L25" s="157"/>
       <c r="M25" s="59"/>
-      <c r="N25" s="144"/>
+      <c r="N25" s="157"/>
       <c r="O25" s="59"/>
-      <c r="P25" s="144"/>
+      <c r="P25" s="157"/>
       <c r="R25" s="0"/>
       <c r="S25" s="0"/>
       <c r="T25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="129" t="s">
+      <c r="A26" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
       <c r="M26" s="0"/>
       <c r="O26" s="0"/>
       <c r="R26" s="0"/>
@@ -3450,19 +3513,19 @@
       <c r="T26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="130" t="s">
+      <c r="C27" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="130"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
       <c r="G27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I27" s="130" t="s">
+      <c r="I27" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J27" s="130"/>
-      <c r="K27" s="130"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="O27" s="0"/>
@@ -3515,10 +3578,10 @@
       <c r="T29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="158"/>
+      <c r="D30" s="174"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="158"/>
+      <c r="D31" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="22">
